--- a/Scrape PHEI/2025-03-Maret/Bond-Data-26-Maret-2025.xlsx
+++ b/Scrape PHEI/2025-03-Maret/Bond-Data-26-Maret-2025.xlsx
@@ -466,7 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Coupon(%)</t>
+          <t>Coupon (%)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
